--- a/contratos/contratos-4-2011.xlsx
+++ b/contratos/contratos-4-2011.xlsx
@@ -496,13 +496,13 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>HOSIFA CONSTRUCTORA S.A.</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
   </si>
   <si>
     <t>METRALLE GRISELDA BEATRIZ</t>
@@ -514,7 +514,7 @@
     <t>VALORI GUILLERMO MIGUEL</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>F.J.M. S.A.</t>
@@ -814,343 +814,343 @@
     <t>99</t>
   </si>
   <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>5.227,20</t>
-  </si>
-  <si>
-    <t>1.360,31</t>
-  </si>
-  <si>
-    <t>1.574,94</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>57.120,00</t>
-  </si>
-  <si>
-    <t>31.579,29</t>
-  </si>
-  <si>
-    <t>12.190,20</t>
-  </si>
-  <si>
-    <t>28.777,73</t>
-  </si>
-  <si>
-    <t>57,75</t>
-  </si>
-  <si>
-    <t>74.549,90</t>
-  </si>
-  <si>
-    <t>124,99</t>
-  </si>
-  <si>
-    <t>6.867,25</t>
-  </si>
-  <si>
-    <t>535,00</t>
-  </si>
-  <si>
-    <t>6.982,63</t>
-  </si>
-  <si>
-    <t>7.248,00</t>
-  </si>
-  <si>
-    <t>378,50</t>
-  </si>
-  <si>
-    <t>1.344,49</t>
-  </si>
-  <si>
-    <t>2.056,03</t>
-  </si>
-  <si>
-    <t>1.310,00</t>
-  </si>
-  <si>
-    <t>1.579,70</t>
-  </si>
-  <si>
-    <t>112,00</t>
-  </si>
-  <si>
-    <t>1.138,00</t>
-  </si>
-  <si>
-    <t>3.169,88</t>
-  </si>
-  <si>
-    <t>134,00</t>
-  </si>
-  <si>
-    <t>29,74</t>
-  </si>
-  <si>
-    <t>3.666,00</t>
-  </si>
-  <si>
-    <t>197,57</t>
-  </si>
-  <si>
-    <t>1.310,95</t>
-  </si>
-  <si>
-    <t>208,00</t>
-  </si>
-  <si>
-    <t>74,64</t>
-  </si>
-  <si>
-    <t>1.205,64</t>
-  </si>
-  <si>
-    <t>310,00</t>
-  </si>
-  <si>
-    <t>397,29</t>
-  </si>
-  <si>
-    <t>104,28</t>
-  </si>
-  <si>
-    <t>314,00</t>
-  </si>
-  <si>
-    <t>257,60</t>
-  </si>
-  <si>
-    <t>5.356,14</t>
-  </si>
-  <si>
-    <t>2.437,40</t>
-  </si>
-  <si>
-    <t>363,35</t>
-  </si>
-  <si>
-    <t>76,54</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>4.490,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>566,00</t>
-  </si>
-  <si>
-    <t>320,00</t>
-  </si>
-  <si>
-    <t>0,03</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>159.694,60</t>
-  </si>
-  <si>
-    <t>4,72</t>
-  </si>
-  <si>
-    <t>5,90</t>
-  </si>
-  <si>
-    <t>26,22</t>
-  </si>
-  <si>
-    <t>20,70</t>
-  </si>
-  <si>
-    <t>1.416,45</t>
-  </si>
-  <si>
-    <t>13.450,50</t>
-  </si>
-  <si>
-    <t>36,80</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>794,00</t>
-  </si>
-  <si>
-    <t>8.538,12</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>178,41</t>
-  </si>
-  <si>
-    <t>1.188,00</t>
-  </si>
-  <si>
-    <t>1.151,11</t>
-  </si>
-  <si>
-    <t>1.502,00</t>
-  </si>
-  <si>
-    <t>272,00</t>
-  </si>
-  <si>
-    <t>27.600,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>756,77</t>
-  </si>
-  <si>
-    <t>86,25</t>
-  </si>
-  <si>
-    <t>5.150,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>6.332,65</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>11.794,21</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>353,60</t>
-  </si>
-  <si>
-    <t>1.970,00</t>
-  </si>
-  <si>
-    <t>1.650,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>31.800,00</t>
-  </si>
-  <si>
-    <t>234,00</t>
-  </si>
-  <si>
-    <t>2.082,00</t>
-  </si>
-  <si>
-    <t>338,00</t>
-  </si>
-  <si>
-    <t>409,00</t>
-  </si>
-  <si>
-    <t>6.250,00</t>
-  </si>
-  <si>
-    <t>2.399,00</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>3.330,00</t>
-  </si>
-  <si>
-    <t>648,00</t>
-  </si>
-  <si>
-    <t>5,65</t>
-  </si>
-  <si>
-    <t>66,65</t>
-  </si>
-  <si>
-    <t>22,76</t>
-  </si>
-  <si>
-    <t>490,00</t>
-  </si>
-  <si>
-    <t>21,60</t>
-  </si>
-  <si>
-    <t>13,52</t>
-  </si>
-  <si>
-    <t>14,60</t>
-  </si>
-  <si>
-    <t>701,50</t>
-  </si>
-  <si>
-    <t>75,00</t>
-  </si>
-  <si>
-    <t>87.801,07</t>
-  </si>
-  <si>
-    <t>2.780,99</t>
-  </si>
-  <si>
-    <t>31.370,00</t>
-  </si>
-  <si>
-    <t>406.881,31</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>33.300,00</t>
-  </si>
-  <si>
-    <t>125,00</t>
-  </si>
-  <si>
-    <t>32.400,00</t>
-  </si>
-  <si>
-    <t>6.880,00</t>
-  </si>
-  <si>
-    <t>4.600,00</t>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>5227.20</t>
+  </si>
+  <si>
+    <t>1360.31</t>
+  </si>
+  <si>
+    <t>1574.94</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>57120.00</t>
+  </si>
+  <si>
+    <t>31579.29</t>
+  </si>
+  <si>
+    <t>12190.20</t>
+  </si>
+  <si>
+    <t>28777.73</t>
+  </si>
+  <si>
+    <t>57.75</t>
+  </si>
+  <si>
+    <t>74549.90</t>
+  </si>
+  <si>
+    <t>124.99</t>
+  </si>
+  <si>
+    <t>6867.25</t>
+  </si>
+  <si>
+    <t>535.00</t>
+  </si>
+  <si>
+    <t>6982.63</t>
+  </si>
+  <si>
+    <t>7248.00</t>
+  </si>
+  <si>
+    <t>378.50</t>
+  </si>
+  <si>
+    <t>1344.49</t>
+  </si>
+  <si>
+    <t>2056.03</t>
+  </si>
+  <si>
+    <t>1310.00</t>
+  </si>
+  <si>
+    <t>1579.70</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>1138.00</t>
+  </si>
+  <si>
+    <t>3169.88</t>
+  </si>
+  <si>
+    <t>134.00</t>
+  </si>
+  <si>
+    <t>29.74</t>
+  </si>
+  <si>
+    <t>3666.00</t>
+  </si>
+  <si>
+    <t>197.57</t>
+  </si>
+  <si>
+    <t>1310.95</t>
+  </si>
+  <si>
+    <t>208.00</t>
+  </si>
+  <si>
+    <t>74.64</t>
+  </si>
+  <si>
+    <t>1205.64</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>397.29</t>
+  </si>
+  <si>
+    <t>104.28</t>
+  </si>
+  <si>
+    <t>314.00</t>
+  </si>
+  <si>
+    <t>257.60</t>
+  </si>
+  <si>
+    <t>5356.14</t>
+  </si>
+  <si>
+    <t>2437.40</t>
+  </si>
+  <si>
+    <t>363.35</t>
+  </si>
+  <si>
+    <t>76.54</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>4490.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>566.00</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>159694.60</t>
+  </si>
+  <si>
+    <t>4.72</t>
+  </si>
+  <si>
+    <t>5.90</t>
+  </si>
+  <si>
+    <t>26.22</t>
+  </si>
+  <si>
+    <t>20.70</t>
+  </si>
+  <si>
+    <t>1416.45</t>
+  </si>
+  <si>
+    <t>13450.50</t>
+  </si>
+  <si>
+    <t>36.80</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>794.00</t>
+  </si>
+  <si>
+    <t>8538.12</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>178.41</t>
+  </si>
+  <si>
+    <t>1188.00</t>
+  </si>
+  <si>
+    <t>1151.11</t>
+  </si>
+  <si>
+    <t>1502.00</t>
+  </si>
+  <si>
+    <t>272.00</t>
+  </si>
+  <si>
+    <t>27600.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>756.77</t>
+  </si>
+  <si>
+    <t>86.25</t>
+  </si>
+  <si>
+    <t>5150.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>6332.65</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>11794.21</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>353.60</t>
+  </si>
+  <si>
+    <t>1970.00</t>
+  </si>
+  <si>
+    <t>1650.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>31800.00</t>
+  </si>
+  <si>
+    <t>234.00</t>
+  </si>
+  <si>
+    <t>2082.00</t>
+  </si>
+  <si>
+    <t>338.00</t>
+  </si>
+  <si>
+    <t>409.00</t>
+  </si>
+  <si>
+    <t>6250.00</t>
+  </si>
+  <si>
+    <t>2399.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>3330.00</t>
+  </si>
+  <si>
+    <t>648.00</t>
+  </si>
+  <si>
+    <t>5.65</t>
+  </si>
+  <si>
+    <t>66.65</t>
+  </si>
+  <si>
+    <t>22.76</t>
+  </si>
+  <si>
+    <t>490.00</t>
+  </si>
+  <si>
+    <t>21.60</t>
+  </si>
+  <si>
+    <t>13.52</t>
+  </si>
+  <si>
+    <t>14.60</t>
+  </si>
+  <si>
+    <t>701.50</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>87801.07</t>
+  </si>
+  <si>
+    <t>2780.99</t>
+  </si>
+  <si>
+    <t>31370.00</t>
+  </si>
+  <si>
+    <t>406881.31</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>33300.00</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>32400.00</t>
+  </si>
+  <si>
+    <t>6880.00</t>
+  </si>
+  <si>
+    <t>4600.00</t>
   </si>
 </sst>
 </file>
